--- a/openunmix/umxl_evaluation_results.xlsx
+++ b/openunmix/umxl_evaluation_results.xlsx
@@ -481,7 +481,9 @@
       <c r="E2" t="n">
         <v>0.4451</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.9263</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -499,7 +501,9 @@
       <c r="E3" t="n">
         <v>3.17854</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.947</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -517,7 +521,9 @@
       <c r="E4" t="n">
         <v>5.548655</v>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>0.9554</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -535,7 +541,9 @@
       <c r="E5" t="n">
         <v>0.7559750000000001</v>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>0.8995</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -553,7 +561,9 @@
       <c r="E6" t="n">
         <v>3.67792</v>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>0.9515</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -571,7 +581,9 @@
       <c r="E7" t="n">
         <v>4.23048</v>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.9206</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -589,7 +601,9 @@
       <c r="E8" t="n">
         <v>2.927285</v>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.913</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -607,7 +621,9 @@
       <c r="E9" t="n">
         <v>4.266925</v>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.8915999999999999</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -625,7 +641,9 @@
       <c r="E10" t="n">
         <v>5.003855</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.9263</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -643,7 +661,9 @@
       <c r="E11" t="n">
         <v>3.391485</v>
       </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>0.8969</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -661,7 +681,9 @@
       <c r="E12" t="n">
         <v>2.77969</v>
       </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.9165</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -679,7 +701,9 @@
       <c r="E13" t="n">
         <v>1.506535</v>
       </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>0.9422</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -697,7 +721,9 @@
       <c r="E14" t="n">
         <v>6.19775</v>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.9459</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -715,7 +741,9 @@
       <c r="E15" t="n">
         <v>5.323885</v>
       </c>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>0.9034</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -733,7 +761,9 @@
       <c r="E16" t="n">
         <v>4.457485</v>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.9331</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -751,7 +781,9 @@
       <c r="E17" t="n">
         <v>3.549065</v>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>0.8757</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -769,7 +801,9 @@
       <c r="E18" t="n">
         <v>3.341295</v>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.9696</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -787,7 +821,9 @@
       <c r="E19" t="n">
         <v>4.409380000000001</v>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.8905</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -805,7 +841,9 @@
       <c r="E20" t="n">
         <v>4.274405</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>0.9352</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -823,7 +861,9 @@
       <c r="E21" t="n">
         <v>2.79372</v>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>0.9340000000000001</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -841,7 +881,9 @@
       <c r="E22" t="n">
         <v>6.558</v>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.9236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -859,7 +901,9 @@
       <c r="E23" t="n">
         <v>3.683955</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>0.9505</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -877,7 +921,9 @@
       <c r="E24" t="n">
         <v>3.727545</v>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0.9512</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -895,7 +941,9 @@
       <c r="E25" t="n">
         <v>3.299435</v>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>0.9477</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -913,7 +961,9 @@
       <c r="E26" t="n">
         <v>9.943660000000001</v>
       </c>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>0.9426</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -931,7 +981,9 @@
       <c r="E27" t="n">
         <v>5.615185</v>
       </c>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>0.9693000000000001</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -949,7 +1001,9 @@
       <c r="E28" t="n">
         <v>3.617865</v>
       </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>0.9308</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -967,7 +1021,9 @@
       <c r="E29" t="n">
         <v>4.197065</v>
       </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>0.9205</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -985,7 +1041,9 @@
       <c r="E30" t="n">
         <v>2.10079</v>
       </c>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>0.9324</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1003,7 +1061,9 @@
       <c r="E31" t="n">
         <v>2.55744</v>
       </c>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>0.9068000000000001</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1021,7 +1081,9 @@
       <c r="E32" t="n">
         <v>2.623045</v>
       </c>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>0.9261</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1039,7 +1101,9 @@
       <c r="E33" t="n">
         <v>3.883025</v>
       </c>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>0.9608</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1057,7 +1121,9 @@
       <c r="E34" t="n">
         <v>5.108605</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.9332</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1075,7 +1141,9 @@
       <c r="E35" t="n">
         <v>4.153345</v>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>0.9251</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1093,7 +1161,9 @@
       <c r="E36" t="n">
         <v>1.926695</v>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>0.9358</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1111,7 +1181,9 @@
       <c r="E37" t="n">
         <v>5.307685</v>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>0.9085</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1129,7 +1201,9 @@
       <c r="E38" t="n">
         <v>1.131075</v>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>0.9674</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1147,7 +1221,9 @@
       <c r="E39" t="n">
         <v>5.71699</v>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>0.9540999999999999</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1165,7 +1241,9 @@
       <c r="E40" t="n">
         <v>4.403575</v>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>0.9709</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1183,7 +1261,9 @@
       <c r="E41" t="n">
         <v>3.85939</v>
       </c>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>0.8976</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1201,7 +1281,9 @@
       <c r="E42" t="n">
         <v>0.7294</v>
       </c>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>0.8498</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1219,7 +1301,9 @@
       <c r="E43" t="n">
         <v>0.7438</v>
       </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>0.8884</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1237,7 +1321,9 @@
       <c r="E44" t="n">
         <v>3.910895</v>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>0.9303</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1255,7 +1341,9 @@
       <c r="E45" t="n">
         <v>3.20352</v>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>0.9762999999999999</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1273,7 +1361,9 @@
       <c r="E46" t="n">
         <v>4.723775</v>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>0.9454</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1291,7 +1381,9 @@
       <c r="E47" t="n">
         <v>5.73941</v>
       </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>0.8913</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1309,7 +1401,9 @@
       <c r="E48" t="n">
         <v>0.490735</v>
       </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>0.9484</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1327,7 +1421,9 @@
       <c r="E49" t="n">
         <v>2.13613</v>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>0.9556</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1345,7 +1441,9 @@
       <c r="E50" t="n">
         <v>5.62701</v>
       </c>
-      <c r="F50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>0.9303</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1363,7 +1461,9 @@
       <c r="E51" t="n">
         <v>5.298909999999999</v>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="n">
+        <v>0.8932</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1383,7 +1483,9 @@
       <c r="E52" t="n">
         <v>3.7615477</v>
       </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="n">
+        <v>0.928762</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1403,7 +1505,9 @@
       <c r="E53" t="n">
         <v>3.7615477</v>
       </c>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="n">
+        <v>0.9308</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
